--- a/Barty/comparison_camber.xlsx
+++ b/Barty/comparison_camber.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\barty\Documents\MATLAB\Projects\SA1\SA1_github\Barty\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FD07D3C-58DE-4476-8BF3-BCE078D70A16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7BB7AE3-47A0-4011-94E9-BBE3C48F72BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{32105555-5A4D-4273-964A-28D08ED0BBB4}"/>
+    <workbookView xWindow="3810" yWindow="954" windowWidth="17352" windowHeight="8946" xr2:uid="{32105555-5A4D-4273-964A-28D08ED0BBB4}"/>
   </bookViews>
   <sheets>
     <sheet name="append" sheetId="2" r:id="rId1"/>
@@ -418,7 +418,7 @@
   <dimension ref="A1:O8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
